--- a/DataBase/Consumos/consumos_ENTRE_RIOS_18_01_2026.xlsx
+++ b/DataBase/Consumos/consumos_ENTRE_RIOS_18_01_2026.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
-  <x:si>
-    <x:t>Desde: 01/01/2026 Hasta: 17/01/2026</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+  <x:si>
+    <x:t>Desde: 01/01/2026 Hasta: 18/01/2026</x:t>
   </x:si>
   <x:si>
     <x:t>Sucursales: ENTRE RIOS</x:t>
@@ -64,6 +64,9 @@
     <x:t xml:space="preserve">500CC LIMO FRUTOS ROJOS </x:t>
   </x:si>
   <x:si>
+    <x:t>VASO LIMONADA MARACUYA</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">500CC LIMO MARACUYA </x:t>
   </x:si>
   <x:si>
@@ -76,6 +79,9 @@
     <x:t>BIO</x:t>
   </x:si>
   <x:si>
+    <x:t>YOGURT CON CEREALES</x:t>
+  </x:si>
+  <x:si>
     <x:t>YOGURT CON GRANOLA</x:t>
   </x:si>
   <x:si>
@@ -403,6 +409,9 @@
     <x:t>VERDE CHAI</x:t>
   </x:si>
   <x:si>
+    <x:t>INCA ROSE</x:t>
+  </x:si>
+  <x:si>
     <x:t>DON JUAN</x:t>
   </x:si>
   <x:si>
@@ -440,6 +449,9 @@
   </x:si>
   <x:si>
     <x:t>TOSTON SIMPLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOSTON RICHE</x:t>
   </x:si>
   <x:si>
     <x:t>TOSTON TRICOLOR</x:t>
@@ -539,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E132" totalsRowShown="0">
-  <x:autoFilter ref="A4:E132"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E136" totalsRowShown="0">
+  <x:autoFilter ref="A4:E136"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="FAMILIA"/>
     <x:tableColumn id="2" name="CODIGO"/>
@@ -840,7 +852,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E132"/>
+  <x:dimension ref="A1:E136"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -895,10 +907,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>326700</x:v>
+        <x:v>340200</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -912,10 +924,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>112200</x:v>
+        <x:v>117500</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -929,10 +941,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>60500</x:v>
+        <x:v>69900</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -946,10 +958,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>71800</x:v>
+        <x:v>83000</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -963,10 +975,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>40500</x:v>
+        <x:v>56700</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -1008,7 +1020,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>16</x:v>
@@ -1017,7 +1029,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>6500</x:v>
+        <x:v>5400</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -1025,7 +1037,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>17</x:v>
@@ -1034,7 +1046,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>9100</x:v>
+        <x:v>6500</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1042,27 +1054,27 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="0" t="n">
-        <x:v>510</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>6900</x:v>
+        <x:v>18200</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="n">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>1</x:v>
@@ -1073,27 +1085,27 @@
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>48000</x:v>
+        <x:v>6900</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B17" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>22</x:v>
@@ -1102,491 +1114,491 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>8500</x:v>
+        <x:v>6900</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B18" s="0" t="n">
-        <x:v>174</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>17800</x:v>
+        <x:v>56500</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="n">
-        <x:v>350</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>5900</x:v>
+        <x:v>8500</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B20" s="0" t="n">
-        <x:v>352</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>39800</x:v>
+        <x:v>17800</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>209500</x:v>
+        <x:v>17700</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>529800</x:v>
+        <x:v>39800</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>8000</x:v>
+        <x:v>227000</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>72000</x:v>
+        <x:v>607800</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>254800</x:v>
+        <x:v>12000</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>35400</x:v>
+        <x:v>72000</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>900</x:v>
+        <x:v>274400</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>900</x:v>
+        <x:v>41300</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B29" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>9000</x:v>
+        <x:v>900</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>310200</x:v>
+        <x:v>900</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>132600</x:v>
+        <x:v>9000</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B32" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>23400</x:v>
+        <x:v>316400</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>118800</x:v>
+        <x:v>155100</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>95000</x:v>
+        <x:v>23400</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>193800</x:v>
+        <x:v>128700</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>245500</x:v>
+        <x:v>95000</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B37" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>72600</x:v>
+        <x:v>193800</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>90000</x:v>
+        <x:v>245500</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>62500</x:v>
+        <x:v>72600</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>212</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>25000</x:v>
+        <x:v>90000</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="n">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="n">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>12900</x:v>
+        <x:v>62500</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
-        <x:v>301</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>81700</x:v>
+        <x:v>25000</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
-        <x:v>302</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>33500</x:v>
+        <x:v>17200</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>303</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>24900</x:v>
+        <x:v>81700</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>306</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>35700</x:v>
+        <x:v>33500</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>307</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>54</x:v>
@@ -1595,55 +1607,55 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>21600</x:v>
+        <x:v>24900</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="n">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B47" s="0" t="n">
-        <x:v>630</x:v>
-      </x:c>
-      <x:c r="C47" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>35700</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>631</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21600</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>632</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
         <x:v>0</x:v>
@@ -1651,16 +1663,16 @@
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
-        <x:v>633</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
         <x:v>0</x:v>
@@ -1668,61 +1680,61 @@
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="n">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B51" s="0" t="n">
-        <x:v>750</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>166000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>751</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>23800</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="A53" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>752</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>37500</x:v>
+        <x:v>193800</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="A54" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>753</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>64</x:v>
@@ -1731,41 +1743,41 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>25800</x:v>
+        <x:v>23800</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="A55" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="n">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B55" s="0" t="n">
-        <x:v>803</x:v>
-      </x:c>
-      <x:c r="C55" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>7500</x:v>
+        <x:v>37500</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="A56" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>550</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>147500</x:v>
+        <x:v>25800</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5">
@@ -1773,75 +1785,75 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>551</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>49800</x:v>
+        <x:v>7500</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
-        <x:v>552</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>6800</x:v>
+        <x:v>147500</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>553</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>21900</x:v>
+        <x:v>49800</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>555</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>15800</x:v>
+        <x:v>6800</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>557</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>73</x:v>
@@ -1850,151 +1862,151 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>23700</x:v>
+        <x:v>21900</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="n">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B62" s="0" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C62" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="D62" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>98100</x:v>
+        <x:v>15800</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>29500</x:v>
+        <x:v>23700</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>88000</x:v>
+        <x:v>117900</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>29400</x:v>
+        <x:v>29500</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>55700</x:v>
+        <x:v>93500</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>23700</x:v>
+        <x:v>37800</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>11000</x:v>
+        <x:v>78700</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="A69" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>23700</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="A70" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>83</x:v>
@@ -2003,49 +2015,49 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>11800</x:v>
+        <x:v>11000</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="A71" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>7500</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="A72" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>16000</x:v>
+        <x:v>17700</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5">
       <x:c r="A73" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>86</x:v>
@@ -2054,32 +2066,32 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>7200</x:v>
+        <x:v>7500</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5">
       <x:c r="A74" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>23400</x:v>
+        <x:v>16000</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5">
       <x:c r="A75" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>88</x:v>
@@ -2088,304 +2100,304 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>3900</x:v>
+        <x:v>7200</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="A76" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>17100</x:v>
+        <x:v>27300</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="A77" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>22800</x:v>
+        <x:v>3900</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:5">
       <x:c r="A78" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
-        <x:v>651</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>9000</x:v>
+        <x:v>17100</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5">
       <x:c r="A79" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B79" s="0" t="n">
-        <x:v>903</x:v>
-      </x:c>
-      <x:c r="C79" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>29700</x:v>
+        <x:v>22800</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5">
       <x:c r="A80" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B80" s="0" t="n">
-        <x:v>908</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>139500</x:v>
+        <x:v>13500</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:5">
       <x:c r="A81" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B81" s="0" t="n">
-        <x:v>920</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>121000</x:v>
+        <x:v>29700</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:5">
       <x:c r="A82" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B82" s="0" t="n">
-        <x:v>930</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>213400</x:v>
+        <x:v>139500</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5">
       <x:c r="A83" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B83" s="0" t="n">
-        <x:v>932</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>76500</x:v>
+        <x:v>121000</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:5">
       <x:c r="A84" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B84" s="0" t="n">
-        <x:v>934</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>19800</x:v>
+        <x:v>220900</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:5">
       <x:c r="A85" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
-        <x:v>950</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>144500</x:v>
+        <x:v>76500</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5">
       <x:c r="A86" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
-        <x:v>951</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>136000</x:v>
+        <x:v>26300</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5">
       <x:c r="A87" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="n">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="B87" s="0" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="C87" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="D87" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>3500</x:v>
+        <x:v>198500</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:5">
       <x:c r="A88" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B88" s="0" t="n">
-        <x:v>1001</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>26400</x:v>
+        <x:v>136000</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5">
       <x:c r="A89" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
-        <x:v>1003</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>9000</x:v>
+        <x:v>3500</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5">
       <x:c r="A90" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B90" s="0" t="n">
-        <x:v>1006</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E90" s="0" t="n">
-        <x:v>2300</x:v>
+        <x:v>26400</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5">
       <x:c r="A91" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B91" s="0" t="n">
-        <x:v>1007</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E91" s="0" t="n">
-        <x:v>1250</x:v>
+        <x:v>9000</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5">
       <x:c r="A92" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B92" s="0" t="n">
-        <x:v>1008</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E92" s="0" t="n">
-        <x:v>3800</x:v>
+        <x:v>2300</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5">
       <x:c r="A93" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B93" s="0" t="n">
-        <x:v>1109</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>108</x:v>
@@ -2394,100 +2406,100 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E93" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>1250</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5">
       <x:c r="A94" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="n">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B94" s="0" t="n">
-        <x:v>450</x:v>
-      </x:c>
-      <x:c r="C94" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
       <x:c r="D94" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E94" s="0" t="n">
-        <x:v>58300</x:v>
+        <x:v>3800</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:5">
       <x:c r="A95" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B95" s="0" t="n">
-        <x:v>451</x:v>
+        <x:v>1109</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
-        <x:v>75800</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5">
       <x:c r="A96" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B96" s="0" t="n">
-        <x:v>452</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E96" s="0" t="n">
-        <x:v>10700</x:v>
+        <x:v>70000</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:5">
       <x:c r="A97" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B97" s="0" t="n">
-        <x:v>453</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
-        <x:v>35700</x:v>
+        <x:v>88500</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5">
       <x:c r="A98" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B98" s="0" t="n">
-        <x:v>454</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E98" s="0" t="n">
-        <x:v>99700</x:v>
+        <x:v>10700</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:5">
       <x:c r="A99" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B99" s="0" t="n">
-        <x:v>456</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>115</x:v>
@@ -2496,75 +2508,75 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E99" s="0" t="n">
-        <x:v>35900</x:v>
+        <x:v>35700</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5">
       <x:c r="A100" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B100" s="0" t="n">
-        <x:v>457</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
-        <x:v>37700</x:v>
+        <x:v>99700</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5">
       <x:c r="A101" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B101" s="0" t="n">
-        <x:v>459</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
-        <x:v>57900</x:v>
+        <x:v>35900</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:5">
       <x:c r="A102" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="n">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B102" s="0" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C102" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
       <x:c r="D102" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>37700</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:5">
       <x:c r="A103" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B103" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E103" s="0" t="n">
-        <x:v>6900</x:v>
+        <x:v>81300</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:5">
@@ -2572,16 +2584,16 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B104" s="0" t="n">
-        <x:v>1050</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="D104" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E104" s="0" t="n">
-        <x:v>40500</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:5">
@@ -2589,474 +2601,542 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B105" s="0" t="n">
-        <x:v>1051</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D105" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E105" s="0" t="n">
-        <x:v>24600</x:v>
+        <x:v>6900</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:5">
       <x:c r="A106" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B106" s="0" t="n">
-        <x:v>1052</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E106" s="0" t="n">
-        <x:v>4900</x:v>
+        <x:v>40500</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:5">
       <x:c r="A107" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B107" s="0" t="n">
-        <x:v>1060</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="D107" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E107" s="0" t="n">
-        <x:v>12600</x:v>
+        <x:v>28700</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:5">
       <x:c r="A108" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B108" s="0" t="n">
-        <x:v>1061</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E108" s="0" t="n">
-        <x:v>44100</x:v>
+        <x:v>4900</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5">
       <x:c r="A109" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="n">
+        <x:v>1060</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B109" s="0" t="n">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="C109" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
       <x:c r="D109" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E109" s="0" t="n">
-        <x:v>7800</x:v>
+        <x:v>12600</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:5">
       <x:c r="A110" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B110" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D110" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E110" s="0" t="n">
-        <x:v>7800</x:v>
+        <x:v>44100</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:5">
       <x:c r="A111" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B111" s="0" t="n">
-        <x:v>254</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
       <x:c r="D111" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E111" s="0" t="n">
-        <x:v>3900</x:v>
+        <x:v>7800</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:5">
       <x:c r="A112" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B112" s="0" t="n">
-        <x:v>257</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
       <x:c r="D112" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E112" s="0" t="n">
-        <x:v>15500</x:v>
+        <x:v>11700</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:5">
       <x:c r="A113" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B113" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="D113" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E113" s="0" t="n">
-        <x:v>7600</x:v>
+        <x:v>3900</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:5">
       <x:c r="A114" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="n">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B114" s="0" t="n">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="C114" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
-        <x:v>29400</x:v>
+        <x:v>3900</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:5">
       <x:c r="A115" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B115" s="0" t="n">
-        <x:v>401</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E115" s="0" t="n">
-        <x:v>127500</x:v>
+        <x:v>21700</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:5">
       <x:c r="A116" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B116" s="0" t="n">
-        <x:v>402</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E116" s="0" t="n">
-        <x:v>106100</x:v>
+        <x:v>7600</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:5">
       <x:c r="A117" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B117" s="0" t="n">
-        <x:v>403</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
-        <x:v>44500</x:v>
+        <x:v>39200</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:5">
       <x:c r="A118" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B118" s="0" t="n">
-        <x:v>405</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E118" s="0" t="n">
-        <x:v>17000</x:v>
+        <x:v>127500</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:5">
       <x:c r="A119" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B119" s="0" t="n">
-        <x:v>407</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E119" s="0" t="n">
-        <x:v>8100</x:v>
+        <x:v>122500</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:5">
       <x:c r="A120" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B120" s="0" t="n">
-        <x:v>408</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E120" s="0" t="n">
-        <x:v>50700</x:v>
+        <x:v>44500</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:5">
       <x:c r="A121" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="n">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="B121" s="0" t="n">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C121" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E121" s="0" t="n">
-        <x:v>22800</x:v>
+        <x:v>17000</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:5">
       <x:c r="A122" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B122" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E122" s="0" t="n">
-        <x:v>16400</x:v>
+        <x:v>8100</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:5">
       <x:c r="A123" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B123" s="0" t="n">
-        <x:v>154</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E123" s="0" t="n">
-        <x:v>46000</x:v>
+        <x:v>62400</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:5">
       <x:c r="A124" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="n">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="n">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C124" s="0" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
-        <x:v>23600</x:v>
+        <x:v>22800</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:5">
       <x:c r="A125" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B125" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E125" s="0" t="n">
-        <x:v>14200</x:v>
+        <x:v>7800</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:5">
       <x:c r="A126" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B126" s="0" t="n">
-        <x:v>501</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D126" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E126" s="0" t="n">
-        <x:v>8000</x:v>
+        <x:v>16400</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:5">
       <x:c r="A127" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B127" s="0" t="n">
-        <x:v>701</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E127" s="0" t="n">
-        <x:v>20700</x:v>
+        <x:v>46000</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:5">
       <x:c r="A128" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B128" s="0" t="n">
-        <x:v>702</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="D128" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E128" s="0" t="n">
-        <x:v>21300</x:v>
+        <x:v>23600</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:5">
       <x:c r="A129" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B129" s="0" t="n">
-        <x:v>703</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E129" s="0" t="n">
-        <x:v>43200</x:v>
+        <x:v>14200</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:5">
       <x:c r="A130" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B130" s="0" t="n">
-        <x:v>704</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E130" s="0" t="n">
-        <x:v>48600</x:v>
+        <x:v>12100</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:5">
       <x:c r="A131" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B131" s="0" t="n">
-        <x:v>705</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E131" s="0" t="n">
-        <x:v>37200</x:v>
+        <x:v>20700</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:5">
       <x:c r="A132" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B132" s="0" t="n">
-        <x:v>999999</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="n">
+        <x:v>21300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:5">
+      <x:c r="A133" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="n">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D133" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="n">
+        <x:v>43200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:5">
+      <x:c r="A134" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="n">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D134" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E134" s="0" t="n">
+        <x:v>54000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:5">
+      <x:c r="A135" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="n">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D135" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E135" s="0" t="n">
+        <x:v>37200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:5">
+      <x:c r="A136" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="n">
+        <x:v>999999</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D136" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E132" s="0" t="n">
+      <x:c r="E136" s="0" t="n">
         <x:v>-1680</x:v>
       </x:c>
     </x:row>
